--- a/medicine/Psychotrope/Manufacture_des_tabacs_de_Nancy/Manufacture_des_tabacs_de_Nancy.xlsx
+++ b/medicine/Psychotrope/Manufacture_des_tabacs_de_Nancy/Manufacture_des_tabacs_de_Nancy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La manufacture des tabacs de Nancy est une ancienne manufacture des tabacs située à Nancy, construite dans les années 1860 et fermée en 1981[1], puis reconvertie en un pôle culturel et universitaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La manufacture des tabacs de Nancy est une ancienne manufacture des tabacs située à Nancy, construite dans les années 1860 et fermée en 1981, puis reconvertie en un pôle culturel et universitaire.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La manufacture des tabacs est construite entre 1864 et 1870 (avec des ateliers provisoires ouverts en 1862), sur les plans de Prosper Morey, architecte de la ville[2]. La maîtrise d'œuvre est confiée à Antoine-Barthélémy Gutton[2], sous la direction d'Eugène Rolland et du Service central des constructions[2].
-Antoine Barthelemy Gutton devient le premier directeur de l'usine en 1866 jusqu'à la fin de sa vie en 1877[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La manufacture des tabacs est construite entre 1864 et 1870 (avec des ateliers provisoires ouverts en 1862), sur les plans de Prosper Morey, architecte de la ville. La maîtrise d'œuvre est confiée à Antoine-Barthélémy Gutton, sous la direction d'Eugène Rolland et du Service central des constructions.
+Antoine Barthelemy Gutton devient le premier directeur de l'usine en 1866 jusqu'à la fin de sa vie en 1877.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce pôle réunit ainsi :
 une salle de théâtre, le théâtre de la Manufacture (auquel elle a donné son nom) ;
